--- a/SchedulingData/static5/pso/scheduling1_6.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_6.xlsx
@@ -481,40 +481,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>77.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.9</v>
+        <v>78.8</v>
       </c>
       <c r="E3" t="n">
-        <v>23.48</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>137.9</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>200.2</v>
+        <v>73</v>
       </c>
       <c r="E4" t="n">
-        <v>20.36</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="5">
@@ -523,174 +523,174 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>65.90000000000001</v>
+        <v>49.64</v>
       </c>
       <c r="E5" t="n">
-        <v>25.58</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>65.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="D6" t="n">
-        <v>129.3</v>
+        <v>133.92</v>
       </c>
       <c r="E6" t="n">
-        <v>23.34</v>
+        <v>20.428</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>36.48</v>
+        <v>82.36</v>
       </c>
       <c r="E7" t="n">
-        <v>27.052</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36.48</v>
+        <v>78.8</v>
       </c>
       <c r="D8" t="n">
-        <v>120.66</v>
+        <v>117.88</v>
       </c>
       <c r="E8" t="n">
-        <v>23.204</v>
+        <v>23.972</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>82.36</v>
       </c>
       <c r="D9" t="n">
-        <v>62.36</v>
+        <v>147.86</v>
       </c>
       <c r="E9" t="n">
-        <v>27.404</v>
+        <v>24.484</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>62.36</v>
+        <v>133.92</v>
       </c>
       <c r="D10" t="n">
-        <v>117.16</v>
+        <v>171.24</v>
       </c>
       <c r="E10" t="n">
-        <v>24.044</v>
+        <v>17.836</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>52</v>
+        <v>45.72</v>
       </c>
       <c r="E11" t="n">
-        <v>26.48</v>
+        <v>26.128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>52</v>
+        <v>171.24</v>
       </c>
       <c r="D12" t="n">
-        <v>116.8</v>
+        <v>231.04</v>
       </c>
       <c r="E12" t="n">
-        <v>21.14</v>
+        <v>14.476</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>116.8</v>
+        <v>49.64</v>
       </c>
       <c r="D13" t="n">
-        <v>149.12</v>
+        <v>101.6</v>
       </c>
       <c r="E13" t="n">
-        <v>18.548</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -698,89 +698,89 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="D14" t="n">
-        <v>58.28</v>
+        <v>135.48</v>
       </c>
       <c r="E14" t="n">
-        <v>26.832</v>
+        <v>23.232</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>120.66</v>
+        <v>117.88</v>
       </c>
       <c r="D15" t="n">
-        <v>180.08</v>
+        <v>165.82</v>
       </c>
       <c r="E15" t="n">
-        <v>18.892</v>
+        <v>21.288</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>200.2</v>
+        <v>45.72</v>
       </c>
       <c r="D16" t="n">
-        <v>249.4</v>
+        <v>102.12</v>
       </c>
       <c r="E16" t="n">
-        <v>17.06</v>
+        <v>22.608</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>58.28</v>
+        <v>102.12</v>
       </c>
       <c r="D17" t="n">
-        <v>148</v>
+        <v>143.1</v>
       </c>
       <c r="E17" t="n">
-        <v>22.96</v>
+        <v>19.64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>249.4</v>
+        <v>231.04</v>
       </c>
       <c r="D18" t="n">
-        <v>287.2</v>
+        <v>280.24</v>
       </c>
       <c r="E18" t="n">
-        <v>14.42</v>
+        <v>11.176</v>
       </c>
     </row>
     <row r="19">
@@ -789,131 +789,131 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>117.16</v>
+        <v>143.1</v>
       </c>
       <c r="D19" t="n">
-        <v>180.76</v>
+        <v>195.26</v>
       </c>
       <c r="E19" t="n">
-        <v>20.304</v>
+        <v>15.064</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>129.3</v>
+        <v>165.82</v>
       </c>
       <c r="D20" t="n">
-        <v>179.16</v>
+        <v>215.6</v>
       </c>
       <c r="E20" t="n">
-        <v>20.484</v>
+        <v>17.44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>149.12</v>
+        <v>101.6</v>
       </c>
       <c r="D21" t="n">
-        <v>212.96</v>
+        <v>171.2</v>
       </c>
       <c r="E21" t="n">
-        <v>14.284</v>
+        <v>16.34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>180.76</v>
+        <v>215.6</v>
       </c>
       <c r="D22" t="n">
-        <v>271.36</v>
+        <v>281.28</v>
       </c>
       <c r="E22" t="n">
-        <v>16.824</v>
+        <v>14.492</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>180.08</v>
+        <v>195.26</v>
       </c>
       <c r="D23" t="n">
-        <v>251.94</v>
+        <v>245.86</v>
       </c>
       <c r="E23" t="n">
-        <v>14.316</v>
+        <v>10.644</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>251.94</v>
+        <v>135.48</v>
       </c>
       <c r="D24" t="n">
-        <v>327.74</v>
+        <v>200.38</v>
       </c>
       <c r="E24" t="n">
-        <v>10.836</v>
+        <v>19.852</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>271.36</v>
+        <v>200.38</v>
       </c>
       <c r="D25" t="n">
-        <v>318.32</v>
+        <v>259.2</v>
       </c>
       <c r="E25" t="n">
-        <v>12.768</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="26">
@@ -922,283 +922,283 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>212.96</v>
+        <v>281.28</v>
       </c>
       <c r="D26" t="n">
-        <v>296.28</v>
+        <v>326.78</v>
       </c>
       <c r="E26" t="n">
-        <v>10.532</v>
+        <v>11.072</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>179.16</v>
+        <v>147.86</v>
       </c>
       <c r="D27" t="n">
-        <v>218.18</v>
+        <v>217.86</v>
       </c>
       <c r="E27" t="n">
-        <v>17.712</v>
+        <v>21.104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>148</v>
+        <v>326.78</v>
       </c>
       <c r="D28" t="n">
-        <v>218.92</v>
+        <v>391.24</v>
       </c>
       <c r="E28" t="n">
-        <v>18.488</v>
+        <v>8.215999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>327.74</v>
+        <v>217.86</v>
       </c>
       <c r="D29" t="n">
-        <v>377.74</v>
+        <v>282.54</v>
       </c>
       <c r="E29" t="n">
-        <v>7.456</v>
+        <v>17.256</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>296.28</v>
+        <v>171.2</v>
       </c>
       <c r="D30" t="n">
-        <v>386.6</v>
+        <v>229.12</v>
       </c>
       <c r="E30" t="n">
-        <v>7.1</v>
+        <v>13.168</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>377.74</v>
+        <v>259.2</v>
       </c>
       <c r="D31" t="n">
-        <v>440.36</v>
+        <v>323.72</v>
       </c>
       <c r="E31" t="n">
-        <v>4.284</v>
+        <v>11.788</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>218.18</v>
+        <v>280.24</v>
       </c>
       <c r="D32" t="n">
-        <v>283.38</v>
+        <v>319.26</v>
       </c>
       <c r="E32" t="n">
-        <v>14.292</v>
+        <v>8.404</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>218.92</v>
+        <v>319.26</v>
       </c>
       <c r="D33" t="n">
-        <v>281.22</v>
+        <v>356.96</v>
       </c>
       <c r="E33" t="n">
-        <v>15.368</v>
+        <v>5.764</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>283.38</v>
+        <v>245.86</v>
       </c>
       <c r="D34" t="n">
-        <v>357.36</v>
+        <v>301.76</v>
       </c>
       <c r="E34" t="n">
-        <v>12.004</v>
+        <v>7.164</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>281.22</v>
+        <v>229.12</v>
       </c>
       <c r="D35" t="n">
-        <v>334.06</v>
+        <v>287.88</v>
       </c>
       <c r="E35" t="n">
-        <v>12.684</v>
+        <v>9.891999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>287.2</v>
+        <v>301.76</v>
       </c>
       <c r="D36" t="n">
-        <v>356.16</v>
+        <v>366.78</v>
       </c>
       <c r="E36" t="n">
-        <v>11.144</v>
+        <v>4.252</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>318.32</v>
+        <v>323.72</v>
       </c>
       <c r="D37" t="n">
-        <v>397.82</v>
+        <v>374.82</v>
       </c>
       <c r="E37" t="n">
-        <v>9.388</v>
+        <v>8.308</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>397.82</v>
+        <v>287.88</v>
       </c>
       <c r="D38" t="n">
-        <v>472.2</v>
+        <v>335.48</v>
       </c>
       <c r="E38" t="n">
-        <v>5.54</v>
+        <v>6.772</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>356.16</v>
+        <v>282.54</v>
       </c>
       <c r="D39" t="n">
-        <v>421.58</v>
+        <v>344.94</v>
       </c>
       <c r="E39" t="n">
-        <v>8.231999999999999</v>
+        <v>14.136</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>334.06</v>
+        <v>374.82</v>
       </c>
       <c r="D40" t="n">
-        <v>401.36</v>
+        <v>403.62</v>
       </c>
       <c r="E40" t="n">
-        <v>7.584</v>
+        <v>6.068</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>401.36</v>
+        <v>344.94</v>
       </c>
       <c r="D41" t="n">
-        <v>452.14</v>
+        <v>400.36</v>
       </c>
       <c r="E41" t="n">
-        <v>4.616</v>
+        <v>10.704</v>
       </c>
     </row>
   </sheetData>
